--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2281125.477763403</v>
+        <v>-2284057.986732719</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>133.9963273159767</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.18254460828227</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.99715940655762</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>27.41341880552907</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.7863412952395</v>
+        <v>112.7863412952323</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>147.12066445869</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>249.9173469706774</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>60.53165876090239</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.49576810820454</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>10.29490320055918</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>195.7392353685503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>84.59181221874039</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>122.2073444116543</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206809</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1424,7 +1424,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>249.3718516103037</v>
+        <v>249.3718516103055</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>16.33367635867935</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>126.8501986697206</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>90.14863908058081</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899574</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.100668059488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>67.63081821228944</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652732</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="26">
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1004.183115213127</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.183115213127</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.183115213127</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2154.38804551414</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2154.38804551414</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1780.92228725306</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1390.782955277248</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.8646000824888</v>
+        <v>2039.121835507464</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>2039.121835507464</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>2039.121835507464</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>2039.121835507464</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X4" t="n">
-        <v>700.4386621806473</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="Y4" t="n">
-        <v>586.5130649127285</v>
+        <v>2039.121835507464</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>967.4725696124262</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>609.2068710056758</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>223.4186184074316</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4731176582281</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>202.549713596819</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>202.549713596819</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1994.866482218103</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1663.803594874532</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1311.034939604418</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1311.034939604418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.22335213854</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C8" t="n">
-        <v>941.2608351981287</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2049.591847472776</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.823192202662</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X8" t="n">
-        <v>1696.823192202662</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y8" t="n">
-        <v>1696.823192202662</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>613.2657900916315</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>613.2657900916315</v>
       </c>
       <c r="U10" t="n">
-        <v>456.5405636086444</v>
+        <v>613.2657900916315</v>
       </c>
       <c r="V10" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.229508727733</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.266991787322</v>
       </c>
       <c r="D11" t="n">
         <v>1591.001293180573</v>
@@ -5051,7 +5051,7 @@
         <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5072,19 +5072,19 @@
         <v>4404.156740844761</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.265981642434</v>
+        <v>4152.265981642432</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.203094298863</v>
+        <v>3821.203094298861</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.434439028749</v>
+        <v>3468.434439028747</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3094.968680767667</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.829348791855</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1356.759402180614</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.7723474321512</v>
+        <v>782.6021571710812</v>
       </c>
       <c r="C13" t="n">
-        <v>796.8361645042443</v>
+        <v>613.6659742431743</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3375015156793</v>
+        <v>613.6659742431743</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>613.6659742431743</v>
       </c>
       <c r="F13" t="n">
         <v>485.5344604353758</v>
@@ -5224,25 +5224,25 @@
         <v>2429.380814232059</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.380814232059</v>
+        <v>2246.210623970989</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.380814232059</v>
+        <v>2246.210623970989</v>
       </c>
       <c r="U13" t="n">
-        <v>2140.304600546786</v>
+        <v>1957.134410285716</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.620112340899</v>
+        <v>1702.449922079829</v>
       </c>
       <c r="W13" t="n">
-        <v>1596.202942303938</v>
+        <v>1413.032752042868</v>
       </c>
       <c r="X13" t="n">
-        <v>1368.213391405921</v>
+        <v>1185.043201144851</v>
       </c>
       <c r="Y13" t="n">
-        <v>1147.420812262391</v>
+        <v>964.2506220013209</v>
       </c>
     </row>
     <row r="14">
@@ -5261,28 +5261,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>853.5941094450255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>703.4774700326898</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>555.5643764502967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>408.6744289523863</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5604,10 +5604,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111718</v>
@@ -5756,7 +5756,7 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5832,7 +5832,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5841,13 +5841,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.172981791115</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.097755135313</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6069,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F25" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580128</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345491</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384035</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6312,16 +6312,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6412,7 +6412,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838285</v>
@@ -6421,10 +6421,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,16 +6549,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,13 +6655,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6789,16 +6789,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,34 +7072,34 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7324,19 +7324,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7497,16 +7497,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7734,16 +7734,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-4.979280562608765e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>231.2765644550309</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>312.5697138618526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.7983120568553</v>
+        <v>105.7983120568625</v>
       </c>
     </row>
     <row r="5">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.537044377342596</v>
+        <v>1.537044377340749</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>132.281796659533</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>18.57084935321068</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992868</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>40.30478226780022</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>218.5536561769547</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31795.45121791694</v>
+        <v>31795.45121791693</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321415</v>
@@ -26320,40 +26320,40 @@
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40328.03141930614</v>
+        <v>40328.03141930616</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450028</v>
+        <v>40357.32998450033</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321421</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185974</v>
+        <v>936391.4095185975</v>
       </c>
       <c r="F3" t="n">
         <v>7852.63761495089</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,13 +26399,13 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95396.83018339492</v>
+        <v>95396.83018339481</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.938886718283</v>
       </c>
       <c r="F4" t="n">
+        <v>5067.592601670489</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5067.59260167046</v>
+      </c>
+      <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="G4" t="n">
-        <v>5067.592601670438</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5067.59260167043</v>
-      </c>
       <c r="I4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="K4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="M4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="N4" t="n">
-        <v>13058.4518647639</v>
-      </c>
       <c r="O4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736428.3362434319</v>
+        <v>-736891.1681071967</v>
       </c>
       <c r="C6" t="n">
         <v>-242871.4954979268</v>
@@ -26528,25 +26528,25 @@
         <v>-242871.4954979268</v>
       </c>
       <c r="E6" t="n">
-        <v>-1002729.275764485</v>
+        <v>-1002765.478618181</v>
       </c>
       <c r="F6" t="n">
-        <v>-73685.43005602813</v>
+        <v>-73720.16798146391</v>
       </c>
       <c r="G6" t="n">
-        <v>-65832.79244107724</v>
+        <v>-65867.53036651299</v>
       </c>
       <c r="H6" t="n">
-        <v>-65832.79244107727</v>
+        <v>-65867.53036651293</v>
       </c>
       <c r="I6" t="n">
-        <v>-94598.19721909685</v>
+        <v>-94598.19721909688</v>
       </c>
       <c r="J6" t="n">
         <v>-251593.6984180581</v>
       </c>
       <c r="K6" t="n">
-        <v>-75170.47922546508</v>
+        <v>-75170.47922546511</v>
       </c>
       <c r="L6" t="n">
         <v>-75170.4792254651</v>
@@ -26555,13 +26555,13 @@
         <v>-199378.9899335236</v>
       </c>
       <c r="N6" t="n">
-        <v>-94598.19721909684</v>
+        <v>-94598.1972190969</v>
       </c>
       <c r="O6" t="n">
-        <v>-75170.4792254651</v>
+        <v>-75170.47922546514</v>
       </c>
       <c r="P6" t="n">
-        <v>-75170.4792254651</v>
+        <v>-75170.47922546517</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203968</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625288148</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>129.4238886163736</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>198.2962365835081</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.810651786171263</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>1.306820537611941</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>88.08381425730997</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>168.5393373498797</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>372.4389384629214</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>132.0130231015846</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>127.5537267312785</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>164.0745298303235</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.092811644894863e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1579551075604</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>394.0223077997508</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145765</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,31 +32789,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145765</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33509,7 +33509,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N39" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>641.2555750770852</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35419,10 +35419,10 @@
         <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>794.4766961512966</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119352</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>297.0239211855421</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902929</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312432</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312432</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930849</v>
@@ -36531,10 +36531,10 @@
         <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N39" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>509.9138629937518</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
